--- a/eval_terc.xlsx
+++ b/eval_terc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/CLAN_overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E8781C-8A04-3F45-80D3-EDBC23D23475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFC6960-4732-7746-A9DC-28DBB9E0FECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="6800" windowWidth="28040" windowHeight="17440" xr2:uid="{ACC90807-474A-7947-895C-D643E0903F9C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>arm</t>
   </si>
@@ -144,6 +144,81 @@
   </si>
   <si>
     <t>mlr3::lrn('cv_glmnet', alpha = 0.5)</t>
+  </si>
+  <si>
+    <t>19.2 [ 0.57 ]</t>
+  </si>
+  <si>
+    <t>196.9 [ 0.00 ]</t>
+  </si>
+  <si>
+    <t>339.4 [ 0.00 ]</t>
+  </si>
+  <si>
+    <t>321.1 [ 0.00 ]</t>
+  </si>
+  <si>
+    <t>mlr3::lrn('kknn', k = 10, kernel = 'epanechnikov')</t>
+  </si>
+  <si>
+    <t>AES_complete</t>
+  </si>
+  <si>
+    <t>AES_capital</t>
+  </si>
+  <si>
+    <t>18.3 [ 0.61 ]</t>
+  </si>
+  <si>
+    <t>214.8 [ 0.01 ]</t>
+  </si>
+  <si>
+    <t>253.0 [ 0.00 ]</t>
+  </si>
+  <si>
+    <t>234.2 [ 0.00 ]</t>
+  </si>
+  <si>
+    <t>1.2 [ 0.04 ]</t>
+  </si>
+  <si>
+    <t>0.6 [ 0.26 ]</t>
+  </si>
+  <si>
+    <t>-0.7 [ 1.00 ]</t>
+  </si>
+  <si>
+    <t>mlr3::lrn('cv_glmnet', alpha = 1)</t>
+  </si>
+  <si>
+    <t>AES_psych</t>
+  </si>
+  <si>
+    <t>-0.5 [ 1.00 ]</t>
+  </si>
+  <si>
+    <t>0.4 [ 0.44 ]</t>
+  </si>
+  <si>
+    <t>0.5 [ 0.35 ]</t>
+  </si>
+  <si>
+    <t>1.0 [ 0.22 ]</t>
+  </si>
+  <si>
+    <t>mlr3::lrn('ranger', num.trees = 500, mtry = 9, min.node.size=20)</t>
+  </si>
+  <si>
+    <t>0.7 [ 0.22 ]</t>
+  </si>
+  <si>
+    <t>0.4 [ 0.45 ]</t>
+  </si>
+  <si>
+    <t>0.3 [ 0.53 ]</t>
+  </si>
+  <si>
+    <t>-0.3 [ 1.00 ]</t>
   </si>
 </sst>
 </file>
@@ -704,67 +779,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -802,6 +817,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1135,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6642ED-3BFB-C544-B229-9020432ECCD8}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,88 +1268,234 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>9.6750088308025506E-3</v>
+        <v>3.9767767091790703E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>7.5342565401058395E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>0.17217845333559501</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>9.6750088308025506E-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>0.129012733813999</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J8" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>3.376548E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>2.4228922999999999E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+  <conditionalFormatting sqref="C2:C8">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="lessThan">
       <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C5">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
-      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/eval_terc.xlsx
+++ b/eval_terc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/CLAN_overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFC6960-4732-7746-A9DC-28DBB9E0FECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA523A3F-5EDA-9E46-8318-084BBC5B9FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="6800" windowWidth="28040" windowHeight="17440" xr2:uid="{ACC90807-474A-7947-895C-D643E0903F9C}"/>
   </bookViews>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1361,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>9.6750088308025506E-3</v>
@@ -1393,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0.129012733813999</v>
